--- a/data/n2v/tables/model-1-1536-20230830-52.xlsx
+++ b/data/n2v/tables/model-1-1536-20230830-52.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1163" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1200" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
@@ -22816,7 +22816,7 @@
         </is>
       </c>
       <c r="C1244" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1244" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="C1250" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="C1251" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1251" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1260" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="C1271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1271" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         </is>
       </c>
       <c r="C1291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1305" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="C1362" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         </is>
       </c>
       <c r="C1382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         </is>
       </c>
       <c r="C1406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         </is>
       </c>
       <c r="C1449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         </is>
       </c>
       <c r="C1467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         </is>
       </c>
       <c r="C1471" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         </is>
       </c>
       <c r="C1473" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         </is>
       </c>
       <c r="C1477" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         </is>
       </c>
       <c r="C1483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         </is>
       </c>
       <c r="C1484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         </is>
       </c>
       <c r="C1486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         </is>
       </c>
       <c r="C1488" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         </is>
       </c>
       <c r="C1501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         </is>
       </c>
       <c r="C1502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         </is>
       </c>
       <c r="C1520" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         </is>
       </c>
       <c r="C1528" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1528" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         </is>
       </c>
       <c r="C1532" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1532" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1553" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         </is>
       </c>
       <c r="C1555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1555" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         </is>
       </c>
       <c r="C1556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1556" t="inlineStr">
         <is>
@@ -28450,7 +28450,7 @@
         </is>
       </c>
       <c r="C1557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1557" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         </is>
       </c>
       <c r="C1581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1581" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         </is>
       </c>
       <c r="C1596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1596" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         </is>
       </c>
       <c r="C1600" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1600" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         </is>
       </c>
       <c r="C1601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1601" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
